--- a/biology/Zoologie/Eremopyga/Eremopyga.xlsx
+++ b/biology/Zoologie/Eremopyga/Eremopyga.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eremopyga est un genre d’oursins (échinodermes) réguliers, de la famille des Diadematidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des oursins dits « réguliers » : ils sont caractérisés par un test (coquille) de forme ronde, et presque uniformément couvert de radioles (piquants) réparties sur tout le corps, mais plus longues sur la partie supérieure. 
 La bouche (appelée « péristome ») se situe au centre de la face inférieure (dite face « orale »), et l'anus (appelé « périprocte ») à l'opposé, soit au sommet du test (à l'« apex » de la face aborale).
@@ -523,8 +537,8 @@
 Les tubercules primaires sont perforés et crénulés, formant des rangées sur les plaques oro-ambitales. Vers l'apex, la tuberculation se réduit progressivement pour arriver à des plaques terminales presque nues.
 La face aborale est presque nue, alors que la face orale est densément granulée.
 Le péristome est petit, avec des encoches buccales petites et arrondies.
-Les radioles sont longues, fines, creuses et verticillées[1].
-On trouve ces oursins dans la région malaise[1].
+Les radioles sont longues, fines, creuses et verticillées.
+On trouve ces oursins dans la région malaise.
 </t>
         </is>
       </c>
@@ -553,9 +567,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (19 avril 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (19 avril 2014) :
 Eremopyga debilis Mortensen, 1940 -- Philippines
 Eremopyga denudata (de Meijere, 1902) -- Malaisie
 			Eremopyga debilis
